--- a/biology/Botanique/Liste_des_plantes_du_Canada/Liste_des_plantes_du_Canada.xlsx
+++ b/biology/Botanique/Liste_des_plantes_du_Canada/Liste_des_plantes_du_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page est une liste des plantes du Canada. Les plantes indigènes au Canada sont indicées avec un N, tandis que les plantes introduites le sont avec un X.
 A | B | C | D | E | F | G | H | I | J | K | L | M | N | O | P | Q | R | S | T | U | V | W | XYZ
@@ -512,7 +524,9 @@
           <t>Ab</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abies
 N Abies amabilis — sapin gracieux
@@ -548,7 +562,9 @@
           <t>Ac</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acalypha
 N Acalypha virginica — acalyphe de Virginie
@@ -616,7 +632,9 @@
           <t>Ad</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adenocaulon
 N Adenocaulon bicolor
@@ -655,7 +673,9 @@
           <t>Ae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aegopodium
 X Aegopodium podagraria — herbe aux goutteux, égopode podagraire
@@ -691,7 +711,9 @@
           <t>Ag</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Agalinis
 N Agalinis gattingeri — gérardie de Gattinger Menacés
@@ -751,7 +773,9 @@
           <t>Ai</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ailanthus
 X Ailanthus altissima — vernis de la Chine, vernis du Japon, ailante glanduleux, verno</t>
@@ -782,7 +806,9 @@
           <t>Aj</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ajuga
 X Ajuga genevensis — bugle de Genève
@@ -814,7 +840,9 @@
           <t>Al</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Alcea
 X Alcea pallida
@@ -883,7 +911,9 @@
           <t>Am</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Amaranthus
 X Amaranthus albus — amarante blanche
@@ -951,7 +981,9 @@
           <t>An</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Anagallis
 X Anagallis arvensis — mouron rouge, mouron des champs
@@ -1046,7 +1078,9 @@
           <t>Ap</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Apera
 X Apera interrupta
@@ -1087,7 +1121,9 @@
           <t>Aq</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Aquilegia
 N Aquilegia brevistyla
@@ -1120,7 +1156,9 @@
           <t>Ar</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Arabidopsis
 X Arabidopsis thaliana — fausse-arabette des Dames
@@ -1243,7 +1281,9 @@
           <t>As</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Asarum
 N Asarum canadense — asaret du Canada, gingembre sauvage
@@ -1316,7 +1356,9 @@
           <t>At</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Athyrium
 N Athyrium filix-femina var.  angustum — fougère femelle du Nord
@@ -1357,7 +1399,9 @@
           <t>Au</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Aureolaria
 N Aureolaria flava
@@ -1392,7 +1436,9 @@
           <t>Av</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Avena
 X Avena fatua — folle-avoine
@@ -1425,7 +1471,9 @@
           <t>Ax</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Axyris
 X Axyris amaranthoides — ansérine de Russie</t>
@@ -1456,7 +1504,9 @@
           <t>Az</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Azolla
 N Azolla caroliniana</t>
